--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="444">
   <si>
     <t>FIO</t>
   </si>
@@ -28,19 +28,1324 @@
     <t>Telefon raqam</t>
   </si>
   <si>
-    <t>Hojimurod Mamadaliev</t>
-  </si>
-  <si>
-    <t>Toshkent</t>
+    <t>Umidjon Oetiqov</t>
+  </si>
+  <si>
+    <t>Toshkent sh</t>
+  </si>
+  <si>
+    <t>998903024330</t>
+  </si>
+  <si>
+    <t>Umidjon Ortiqov</t>
+  </si>
+  <si>
+    <t>998901323838</t>
+  </si>
+  <si>
+    <t>test test</t>
+  </si>
+  <si>
+    <t>+998909599400</t>
+  </si>
+  <si>
+    <t>Nurmamatova Dildora</t>
+  </si>
+  <si>
+    <t>998909470094</t>
+  </si>
+  <si>
+    <t>Ilxomjon sirojiddinov</t>
+  </si>
+  <si>
+    <t>Andijon</t>
+  </si>
+  <si>
+    <t>998990063037</t>
+  </si>
+  <si>
+    <t>Jumaboyev Hikmat</t>
+  </si>
+  <si>
+    <t>998997776327</t>
+  </si>
+  <si>
+    <t>Qosimov  shexrozbek</t>
+  </si>
+  <si>
+    <t>998944320307</t>
+  </si>
+  <si>
+    <t>Samandar Turgunaliev</t>
+  </si>
+  <si>
+    <t>998998223707</t>
+  </si>
+  <si>
+    <t>Султамуратов Улугбек</t>
+  </si>
+  <si>
+    <t>Qoraqalpogʻiston</t>
+  </si>
+  <si>
+    <t>998994112817</t>
+  </si>
+  <si>
+    <t>Almardonov Akbar</t>
+  </si>
+  <si>
+    <t>998995724318</t>
+  </si>
+  <si>
+    <t>Nosirjonov Sadriddin</t>
+  </si>
+  <si>
+    <t>998977037047</t>
+  </si>
+  <si>
+    <t>Ibragimov Shaxzod</t>
+  </si>
+  <si>
+    <t>Samarqand</t>
+  </si>
+  <si>
+    <t>998932367036</t>
+  </si>
+  <si>
+    <t>Qizlarxon Zaripova</t>
+  </si>
+  <si>
+    <t>Navoiy</t>
+  </si>
+  <si>
+    <t>998939542011</t>
+  </si>
+  <si>
+    <t>Istamjon Majidov</t>
+  </si>
+  <si>
+    <t>998979344868</t>
+  </si>
+  <si>
+    <t>Mamashukurov Sunnatillo</t>
+  </si>
+  <si>
+    <t>998330010901</t>
+  </si>
+  <si>
+    <t>O'razmetov Matniyoz</t>
+  </si>
+  <si>
+    <t>Xorazim</t>
+  </si>
+  <si>
+    <t>998996214397</t>
+  </si>
+  <si>
+    <t>Bekzodjon Yo'ldashev</t>
+  </si>
+  <si>
+    <t>Farg'ona</t>
+  </si>
+  <si>
+    <t>998905676720</t>
+  </si>
+  <si>
+    <t>Axmedov SHOHABBOS</t>
+  </si>
+  <si>
+    <t>Toshkent v</t>
+  </si>
+  <si>
+    <t>998996304204</t>
+  </si>
+  <si>
+    <t>Islomova Feruza</t>
+  </si>
+  <si>
+    <t>Buxoro</t>
+  </si>
+  <si>
+    <t>998907456701</t>
+  </si>
+  <si>
+    <t>Исломбек Мирзахалов</t>
+  </si>
+  <si>
+    <t>998933863555</t>
+  </si>
+  <si>
+    <t>Togri yozdim</t>
+  </si>
+  <si>
+    <t>998977581597</t>
+  </si>
+  <si>
+    <t>Hoshimjon ismanjanov</t>
+  </si>
+  <si>
+    <t>Namangan</t>
+  </si>
+  <si>
+    <t>79990594627</t>
+  </si>
+  <si>
+    <t>jafar samugjanov</t>
+  </si>
+  <si>
+    <t>998996877077</t>
+  </si>
+  <si>
+    <t>Kamron Nosirov</t>
+  </si>
+  <si>
+    <t>JIzzax</t>
+  </si>
+  <si>
+    <t>998334720909</t>
+  </si>
+  <si>
+    <t>Saidjon Uktirov</t>
+  </si>
+  <si>
+    <t>998950250445</t>
+  </si>
+  <si>
+    <t>Erdashov Jaxangir</t>
+  </si>
+  <si>
+    <t>998932052171</t>
+  </si>
+  <si>
+    <t>Sardorbek Boltaboyev</t>
+  </si>
+  <si>
+    <t>998941922702</t>
+  </si>
+  <si>
+    <t>Sarvarbek Masharipov</t>
+  </si>
+  <si>
+    <t>998977480298</t>
+  </si>
+  <si>
+    <t>Raxmonov Ibrohim</t>
+  </si>
+  <si>
+    <t>998934324334</t>
+  </si>
+  <si>
+    <t>Zayniyev og'abek</t>
+  </si>
+  <si>
+    <t>998919886362</t>
+  </si>
+  <si>
+    <t>Нурали Ергашев</t>
+  </si>
+  <si>
+    <t>998912200992</t>
+  </si>
+  <si>
+    <t>Ikrorbek Madusmonov</t>
+  </si>
+  <si>
+    <t>79538900929</t>
+  </si>
+  <si>
+    <t>Ilhomboyev Azizbek</t>
+  </si>
+  <si>
+    <t>998943100310</t>
+  </si>
+  <si>
+    <t>Abdulloh Toirov</t>
+  </si>
+  <si>
+    <t>998882237666</t>
+  </si>
+  <si>
+    <t>Islom Jalolov</t>
+  </si>
+  <si>
+    <t>+998998951313</t>
+  </si>
+  <si>
+    <t>Ro'zimurodova Marjona</t>
+  </si>
+  <si>
+    <t>998337431213</t>
+  </si>
+  <si>
+    <t>Mirzaqosimov Sarvar</t>
+  </si>
+  <si>
+    <t>Sirdaryo</t>
+  </si>
+  <si>
+    <t>998906105525</t>
+  </si>
+  <si>
+    <t>Turdaliyev Erkinjon</t>
+  </si>
+  <si>
+    <t>998339565662</t>
+  </si>
+  <si>
+    <t>Sanoyev Nurmuhammad</t>
+  </si>
+  <si>
+    <t>998905129503</t>
+  </si>
+  <si>
+    <t>Ergashev Jahongir</t>
+  </si>
+  <si>
+    <t>998339041990</t>
+  </si>
+  <si>
+    <t>Norboyev Umidjon</t>
+  </si>
+  <si>
+    <t>Surxondaryo</t>
+  </si>
+  <si>
+    <t>998930769696</t>
+  </si>
+  <si>
+    <t>Qurbonali Mutallibjonov</t>
+  </si>
+  <si>
+    <t>998930690304</t>
+  </si>
+  <si>
+    <t>Abduvosiyev jahongir</t>
+  </si>
+  <si>
+    <t>998906256551</t>
+  </si>
+  <si>
+    <t>Qurbonov Tohir</t>
+  </si>
+  <si>
+    <t>998904449010</t>
+  </si>
+  <si>
+    <t>998950589944</t>
+  </si>
+  <si>
+    <t>Oybek Abduraimov</t>
+  </si>
+  <si>
+    <t>998997564934</t>
+  </si>
+  <si>
+    <t>Samandar Ilhomjonov</t>
+  </si>
+  <si>
+    <t>998910400527</t>
+  </si>
+  <si>
+    <t>Odilbek Eshchanov</t>
+  </si>
+  <si>
+    <t>998936115455</t>
+  </si>
+  <si>
+    <t>Sidiqjonov Azizbek</t>
+  </si>
+  <si>
+    <t>998930037060</t>
+  </si>
+  <si>
+    <t>Samandar Toshpulatov</t>
+  </si>
+  <si>
+    <t>998971731717</t>
+  </si>
+  <si>
+    <t>Abdumalik sheraliyev</t>
+  </si>
+  <si>
+    <t>998916127232</t>
+  </si>
+  <si>
+    <t>Abduraupov Dilmurod</t>
+  </si>
+  <si>
+    <t>998944754205</t>
+  </si>
+  <si>
+    <t>Sadritdinov Asadbek</t>
+  </si>
+  <si>
+    <t>998971941100</t>
+  </si>
+  <si>
+    <t>Roʻza Begimkulova</t>
+  </si>
+  <si>
+    <t>998994787511</t>
+  </si>
+  <si>
+    <t>Abdumalik Xamdamov</t>
+  </si>
+  <si>
+    <t>998901924222</t>
+  </si>
+  <si>
+    <t>Ilxombek Umarqulov</t>
+  </si>
+  <si>
+    <t>998941200071</t>
+  </si>
+  <si>
+    <t>Shukurloyev Nurmuhammad</t>
+  </si>
+  <si>
+    <t>998888707374</t>
+  </si>
+  <si>
+    <t>Ochilov Hasanxon</t>
+  </si>
+  <si>
+    <t>998998077021</t>
+  </si>
+  <si>
+    <t>Tõlanova Shoiraxon</t>
+  </si>
+  <si>
+    <t>998883464206</t>
+  </si>
+  <si>
+    <t>Tursunboyev Boburshoh</t>
+  </si>
+  <si>
+    <t>998941557221</t>
+  </si>
+  <si>
+    <t>Shohruh Xalilov</t>
+  </si>
+  <si>
+    <t>998933495969</t>
+  </si>
+  <si>
+    <t>Jonimqulov Shohbozjon</t>
+  </si>
+  <si>
+    <t>Qashqadaryo</t>
+  </si>
+  <si>
+    <t>998900383343</t>
+  </si>
+  <si>
+    <t>Adilova Aziza</t>
+  </si>
+  <si>
+    <t>998909276986</t>
+  </si>
+  <si>
+    <t>Jamshid Kattabekov</t>
+  </si>
+  <si>
+    <t>998930863722</t>
+  </si>
+  <si>
+    <t>Abdullayeva Gulshoda</t>
+  </si>
+  <si>
+    <t>998944117337</t>
+  </si>
+  <si>
+    <t>Zayniddin Ibn Zafar</t>
+  </si>
+  <si>
+    <t>998916375389</t>
+  </si>
+  <si>
+    <t>Xusniyor Xabibullayev</t>
+  </si>
+  <si>
+    <t>998935738787</t>
+  </si>
+  <si>
+    <t>Ассалаумағалейкүм Даулетниязов Мажит</t>
+  </si>
+  <si>
+    <t>998935131028</t>
+  </si>
+  <si>
+    <t>Toraboyeva Mexriniso</t>
+  </si>
+  <si>
+    <t>998946690108</t>
+  </si>
+  <si>
+    <t>Nuriddin Najmiddinov</t>
+  </si>
+  <si>
+    <t>998901114611</t>
+  </si>
+  <si>
+    <t>Temur Kuatov</t>
+  </si>
+  <si>
+    <t>998903934577</t>
+  </si>
+  <si>
+    <t>Ollazarov Murodjon</t>
+  </si>
+  <si>
+    <t>998904300609</t>
+  </si>
+  <si>
+    <t>Abdulaziz Khamidov</t>
+  </si>
+  <si>
+    <t>998906991920</t>
+  </si>
+  <si>
+    <t>Shokarimov Sherzod</t>
+  </si>
+  <si>
+    <t>998991344831</t>
+  </si>
+  <si>
+    <t>Abrorjon Mirzabekov</t>
+  </si>
+  <si>
+    <t>998938590702</t>
+  </si>
+  <si>
+    <t>Bekturdiyev Javohir</t>
+  </si>
+  <si>
+    <t>998935060063</t>
+  </si>
+  <si>
+    <t>Topiboldiyev Otabek</t>
+  </si>
+  <si>
+    <t>998911214644</t>
+  </si>
+  <si>
+    <t>Abdiyev Shahzod</t>
+  </si>
+  <si>
+    <t>998998535153</t>
+  </si>
+  <si>
+    <t>Otabek Esonaliev</t>
+  </si>
+  <si>
+    <t>998911598583</t>
+  </si>
+  <si>
+    <t>Умида Якупова</t>
+  </si>
+  <si>
+    <t>998332180313</t>
+  </si>
+  <si>
+    <t>Sherzod Yoʻldoshev</t>
+  </si>
+  <si>
+    <t>998996448754</t>
+  </si>
+  <si>
+    <t>Baxtiyorov Siyovush</t>
+  </si>
+  <si>
+    <t>998910021020</t>
+  </si>
+  <si>
+    <t>998336448754</t>
+  </si>
+  <si>
+    <t>Ramil Rajabboyev</t>
+  </si>
+  <si>
+    <t>77753696450</t>
+  </si>
+  <si>
+    <t>Aliyev Siroj Yodgor o'g'li</t>
+  </si>
+  <si>
+    <t>998979066699</t>
+  </si>
+  <si>
+    <t>Бахронов Абдулазиз</t>
+  </si>
+  <si>
+    <t>998900097273</t>
+  </si>
+  <si>
+    <t>Taganov Bekzod</t>
+  </si>
+  <si>
+    <t>998900179611</t>
+  </si>
+  <si>
+    <t>Xurshidov Shoxrux</t>
+  </si>
+  <si>
+    <t>998994705367</t>
+  </si>
+  <si>
+    <t>Rahimov Muhammadaziz</t>
+  </si>
+  <si>
+    <t>998995211504</t>
+  </si>
+  <si>
+    <t>Diyor Sharipov</t>
+  </si>
+  <si>
+    <t>998945170637</t>
+  </si>
+  <si>
+    <t>Azamat Eshchanov</t>
+  </si>
+  <si>
+    <t>998999685458</t>
+  </si>
+  <si>
+    <t>Husein Rayimjonov</t>
+  </si>
+  <si>
+    <t>998996000718</t>
+  </si>
+  <si>
+    <t>Alimardon Shomurodov</t>
+  </si>
+  <si>
+    <t>998912267978</t>
+  </si>
+  <si>
+    <t>Jasurbek Xamrayev</t>
+  </si>
+  <si>
+    <t>998994170742</t>
+  </si>
+  <si>
+    <t>Suxrob Izzatillaevich</t>
+  </si>
+  <si>
+    <t>998933173881</t>
+  </si>
+  <si>
+    <t>Xvan Kim</t>
+  </si>
+  <si>
+    <t>12393294829</t>
+  </si>
+  <si>
+    <t>Faxriddin O'ralov</t>
+  </si>
+  <si>
+    <t>79167156401</t>
+  </si>
+  <si>
+    <t>Abdukarimov Eldor</t>
+  </si>
+  <si>
+    <t>998936307275</t>
+  </si>
+  <si>
+    <t>Ismoilov Iqrorbek</t>
+  </si>
+  <si>
+    <t>+998904069757</t>
+  </si>
+  <si>
+    <t>Odilbek Hayitboyev</t>
+  </si>
+  <si>
+    <t>998942361297</t>
+  </si>
+  <si>
+    <t>Umidxon Mamatxonov</t>
+  </si>
+  <si>
+    <t>998993407407</t>
+  </si>
+  <si>
+    <t>Shohruhbek Mirzayev</t>
+  </si>
+  <si>
+    <t>998979969697</t>
+  </si>
+  <si>
+    <t>Xamrayev Muslimbek</t>
+  </si>
+  <si>
+    <t>79650251719</t>
+  </si>
+  <si>
+    <t>Raufov Obid</t>
+  </si>
+  <si>
+    <t>998996756420</t>
+  </si>
+  <si>
+    <t>Ismatullo Tashanov</t>
+  </si>
+  <si>
+    <t>998997585993</t>
+  </si>
+  <si>
+    <t>Muhammadali Qodirov</t>
+  </si>
+  <si>
+    <t>998993283831</t>
+  </si>
+  <si>
+    <t>To'xtasinov Anvarxõja</t>
+  </si>
+  <si>
+    <t>998995184875</t>
+  </si>
+  <si>
+    <t>Dovudxon Abdurahmonov</t>
+  </si>
+  <si>
+    <t>998945010099</t>
+  </si>
+  <si>
+    <t>Mamirqulov Baxrom</t>
+  </si>
+  <si>
+    <t>998900243363</t>
+  </si>
+  <si>
+    <t>Javohir ibrohimov</t>
+  </si>
+  <si>
+    <t>998901792579</t>
+  </si>
+  <si>
+    <t>Alisher Mirzaboev</t>
+  </si>
+  <si>
+    <t>79969901630</t>
+  </si>
+  <si>
+    <t>Pazilidinova Dildora</t>
+  </si>
+  <si>
+    <t>998907825350</t>
+  </si>
+  <si>
+    <t>Abdullayev Jasurbek</t>
+  </si>
+  <si>
+    <t>998915121856</t>
+  </si>
+  <si>
+    <t>Nishanov Turaxon</t>
+  </si>
+  <si>
+    <t>998931170802</t>
+  </si>
+  <si>
+    <t>Jamshidek Tursunboyev</t>
+  </si>
+  <si>
+    <t>998901708137</t>
+  </si>
+  <si>
+    <t>998974220028</t>
+  </si>
+  <si>
+    <t>Hoshimiv Avaz</t>
+  </si>
+  <si>
+    <t>79657782209</t>
+  </si>
+  <si>
+    <t>Qarashiboyev Anvar</t>
+  </si>
+  <si>
+    <t>998997281617</t>
+  </si>
+  <si>
+    <t>Yo'ldoshxonov To'raxon</t>
+  </si>
+  <si>
+    <t>998994702214</t>
+  </si>
+  <si>
+    <t>Rahimov Rahmatillo "Al_Xoyr" asoschisi</t>
+  </si>
+  <si>
+    <t>998932494090</t>
+  </si>
+  <si>
+    <t>Гулзар Абдисадикова</t>
+  </si>
+  <si>
+    <t>998913847402</t>
+  </si>
+  <si>
+    <t>Hikmetulla Muratbaev insta:orazbaec1167</t>
+  </si>
+  <si>
+    <t>998937790417</t>
+  </si>
+  <si>
+    <t>Xaytbaev Shamsuddin</t>
+  </si>
+  <si>
+    <t>998913793511</t>
+  </si>
+  <si>
+    <t>Ilhomjon Abduqodirov</t>
+  </si>
+  <si>
+    <t>998994009163</t>
+  </si>
+  <si>
+    <t>Saidkamolxoja soyibxoja ogli</t>
+  </si>
+  <si>
+    <t>998993062728</t>
+  </si>
+  <si>
+    <t>Azizbek Ravshanov</t>
+  </si>
+  <si>
+    <t>79773747968</t>
+  </si>
+  <si>
+    <t>Abdukadirov Anvarmirzo</t>
+  </si>
+  <si>
+    <t>996700617028</t>
+  </si>
+  <si>
+    <t>Roziev Turabek</t>
+  </si>
+  <si>
+    <t>79642154894</t>
+  </si>
+  <si>
+    <t>Bekzod Ahmadov</t>
+  </si>
+  <si>
+    <t>998996701423</t>
+  </si>
+  <si>
+    <t>Asilbek Baxiybekov</t>
+  </si>
+  <si>
+    <t>998937919977</t>
+  </si>
+  <si>
+    <t>Axrorov Muzaffar</t>
+  </si>
+  <si>
+    <t>998901597289</t>
+  </si>
+  <si>
+    <t>Зухриллаев Иброхим</t>
+  </si>
+  <si>
+    <t>13044277719</t>
+  </si>
+  <si>
+    <t>Alisher Ahmedov</t>
+  </si>
+  <si>
+    <t>998976942808</t>
+  </si>
+  <si>
+    <t>Zafar Rajabov</t>
+  </si>
+  <si>
+    <t>998995957647</t>
+  </si>
+  <si>
+    <t>Latipov Komil</t>
+  </si>
+  <si>
+    <t>998997455532</t>
+  </si>
+  <si>
+    <t>Abdullo xolmirzayev</t>
+  </si>
+  <si>
+    <t>998930604880</t>
+  </si>
+  <si>
+    <t>OKTAMOV ILXOMJON</t>
+  </si>
+  <si>
+    <t>79038530050</t>
+  </si>
+  <si>
+    <t>Xamidov Asliddin</t>
+  </si>
+  <si>
+    <t>998934414644</t>
+  </si>
+  <si>
+    <t>Nortojiyev Timur</t>
+  </si>
+  <si>
+    <t>998999439966</t>
+  </si>
+  <si>
+    <t>Ibrohim Shamuratov</t>
+  </si>
+  <si>
+    <t>998999666802</t>
+  </si>
+  <si>
+    <t>Olimjonov Begzod</t>
+  </si>
+  <si>
+    <t>998909933683</t>
+  </si>
+  <si>
+    <t>Yunusov Umarxon</t>
+  </si>
+  <si>
+    <t>998915225424</t>
+  </si>
+  <si>
+    <t>Ashurov Farruxbek Rasuljon oʻgʻli</t>
+  </si>
+  <si>
+    <t>998996923212</t>
+  </si>
+  <si>
+    <t>Sherali Usmonov</t>
+  </si>
+  <si>
+    <t>79522787538</t>
+  </si>
+  <si>
+    <t>998911682971</t>
+  </si>
+  <si>
+    <t>Тоштемиров Умиджон</t>
+  </si>
+  <si>
+    <t>998995154887</t>
+  </si>
+  <si>
+    <t>Botirov Umidjon</t>
+  </si>
+  <si>
+    <t>998993957602</t>
+  </si>
+  <si>
+    <t>Умиджон тоштемиров</t>
+  </si>
+  <si>
+    <t>79538620070</t>
+  </si>
+  <si>
+    <t>Xaydarov Ma'ruf</t>
+  </si>
+  <si>
+    <t>998932375393</t>
+  </si>
+  <si>
+    <t>Sardor Xojiyev</t>
+  </si>
+  <si>
+    <t>998977732018</t>
+  </si>
+  <si>
+    <t>Yuldashev Javoxir</t>
+  </si>
+  <si>
+    <t>998992667106</t>
+  </si>
+  <si>
+    <t>S m</t>
+  </si>
+  <si>
+    <t>998947130100</t>
+  </si>
+  <si>
+    <t>Эшмаматов Умиджон</t>
+  </si>
+  <si>
+    <t>998996665887</t>
+  </si>
+  <si>
+    <t>Habibullayev Muslimbek</t>
+  </si>
+  <si>
+    <t>998949071803</t>
+  </si>
+  <si>
+    <t>Sardorbek Sabirov</t>
+  </si>
+  <si>
+    <t>998919933222</t>
+  </si>
+  <si>
+    <t>Hosilov Mirbobur</t>
+  </si>
+  <si>
+    <t>998930025956</t>
+  </si>
+  <si>
+    <t>Mamatov Ozodbek</t>
+  </si>
+  <si>
+    <t>998915774909</t>
+  </si>
+  <si>
+    <t>Abdurahmonov Shahriyor</t>
+  </si>
+  <si>
+    <t>998333783830</t>
+  </si>
+  <si>
+    <t>Якубов Нурбек</t>
+  </si>
+  <si>
+    <t>79915778060</t>
+  </si>
+  <si>
+    <t>Ботиров Жахонгир</t>
+  </si>
+  <si>
+    <t>998950139333</t>
+  </si>
+  <si>
+    <t>Jamshid Jumayev</t>
+  </si>
+  <si>
+    <t>998888071414</t>
+  </si>
+  <si>
+    <t>Yoqubov Doniyor</t>
+  </si>
+  <si>
+    <t>79046560233</t>
+  </si>
+  <si>
+    <t>Барот Жураев</t>
+  </si>
+  <si>
+    <t>998337691616</t>
+  </si>
+  <si>
+    <t>Азиз Абдурахманов</t>
+  </si>
+  <si>
+    <t>998997857656</t>
+  </si>
+  <si>
+    <t>Maratbek Turdiboyev</t>
+  </si>
+  <si>
+    <t>998936493431</t>
+  </si>
+  <si>
+    <t>Muzaffarov saidnur</t>
+  </si>
+  <si>
+    <t>998930011663</t>
+  </si>
+  <si>
+    <t>Otamurod Toshtemirov</t>
+  </si>
+  <si>
+    <t>998910090203</t>
+  </si>
+  <si>
+    <t>G'afurjon Turg'unboyev</t>
+  </si>
+  <si>
+    <t>998996421122</t>
+  </si>
+  <si>
+    <t>Erkinov Timur</t>
+  </si>
+  <si>
+    <t>998917755677</t>
+  </si>
+  <si>
+    <t>Муллаев Шохрух</t>
+  </si>
+  <si>
+    <t>998935792809</t>
+  </si>
+  <si>
+    <t>Aktamov Ismoil</t>
+  </si>
+  <si>
+    <t>998933402240</t>
+  </si>
+  <si>
+    <t>Lobar Muhammadiyeva</t>
+  </si>
+  <si>
+    <t>998883797977</t>
+  </si>
+  <si>
+    <t>Aynur Jumadillayva</t>
+  </si>
+  <si>
+    <t>998910030667</t>
+  </si>
+  <si>
+    <t>998990293750</t>
+  </si>
+  <si>
+    <t>Tursunaliyev Asadullo</t>
+  </si>
+  <si>
+    <t>998903448567</t>
+  </si>
+  <si>
+    <t>Muhammadov Bilol</t>
+  </si>
+  <si>
+    <t>998998608610</t>
+  </si>
+  <si>
+    <t>UBAYDULLAYEV SARVAR</t>
+  </si>
+  <si>
+    <t>998974294411</t>
+  </si>
+  <si>
+    <t>Polyozov Muhammad</t>
+  </si>
+  <si>
+    <t>998339562697</t>
+  </si>
+  <si>
+    <t>To'g'onov sarvar</t>
+  </si>
+  <si>
+    <t>998996435546</t>
+  </si>
+  <si>
+    <t>Bekmurodov Diyorbek</t>
+  </si>
+  <si>
+    <t>+998903780198</t>
+  </si>
+  <si>
+    <t>Shoxrux To'ychiboyev</t>
+  </si>
+  <si>
+    <t>998930384705</t>
+  </si>
+  <si>
+    <t>Nejep Odekeev</t>
+  </si>
+  <si>
+    <t>998907247721</t>
+  </si>
+  <si>
+    <t>Abdurasulov Jaloliddin</t>
+  </si>
+  <si>
+    <t>998912636304</t>
+  </si>
+  <si>
+    <t>Norsafar Mamadaliyev</t>
+  </si>
+  <si>
+    <t>998990670517</t>
+  </si>
+  <si>
+    <t>Ikramova Shodiyona Ilhom qizi</t>
+  </si>
+  <si>
+    <t>998990047449</t>
+  </si>
+  <si>
+    <t>Jo'rayeva Maftuna</t>
+  </si>
+  <si>
+    <t>998909031464</t>
+  </si>
+  <si>
+    <t>Dilshod Nurullayev</t>
+  </si>
+  <si>
+    <t>998331321111</t>
+  </si>
+  <si>
+    <t>Abdullayev Muhammadali</t>
+  </si>
+  <si>
+    <t>998902166545</t>
+  </si>
+  <si>
+    <t>Sirojbek Hayitboyev</t>
+  </si>
+  <si>
+    <t>998999618157</t>
+  </si>
+  <si>
+    <t>Assalomu alaykum</t>
+  </si>
+  <si>
+    <t>998909419131</t>
+  </si>
+  <si>
+    <t>Jasur Kuchkorov</t>
+  </si>
+  <si>
+    <t>998935679805</t>
+  </si>
+  <si>
+    <t>Oripov Avazbek</t>
+  </si>
+  <si>
+    <t>998937311999</t>
+  </si>
+  <si>
+    <t>Baxriyev Shaxriyor</t>
+  </si>
+  <si>
+    <t>998943439949</t>
+  </si>
+  <si>
+    <t>Nodirbek Kokiyev</t>
+  </si>
+  <si>
+    <t>998936420510</t>
+  </si>
+  <si>
+    <t>Dõsqobilov Mavlon</t>
+  </si>
+  <si>
+    <t>79967690176</t>
+  </si>
+  <si>
+    <t>Abduganiyev Akmal</t>
+  </si>
+  <si>
+    <t>998998861896</t>
+  </si>
+  <si>
+    <t>Anvar Utepbergenov</t>
+  </si>
+  <si>
+    <t>998996827636</t>
+  </si>
+  <si>
+    <t>Samandarov Jasurbek</t>
+  </si>
+  <si>
+    <t>998999612776</t>
+  </si>
+  <si>
+    <t>Surayyo Polvonova</t>
+  </si>
+  <si>
+    <t>998996105295</t>
+  </si>
+  <si>
+    <t>Murodjon Zeitov</t>
+  </si>
+  <si>
+    <t>998901376336</t>
+  </si>
+  <si>
+    <t>sdfsdf sdfsdf</t>
   </si>
   <si>
     <t>+998972666255</t>
   </si>
   <si>
-    <t>sdfsdf sdfsdf</t>
-  </si>
-  <si>
-    <t>+998950657313</t>
+    <t>Nasimov Shohjahon</t>
+  </si>
+  <si>
+    <t>998932773375</t>
+  </si>
+  <si>
+    <t>Habibullayev Ravshan</t>
+  </si>
+  <si>
+    <t>998937227422</t>
+  </si>
+  <si>
+    <t>Abdullayev Baxtiyorbek</t>
+  </si>
+  <si>
+    <t>998993087134</t>
+  </si>
+  <si>
+    <t>Azimov nodir</t>
+  </si>
+  <si>
+    <t>998946231709</t>
+  </si>
+  <si>
+    <t>Урунова Шахноза</t>
+  </si>
+  <si>
+    <t>998906579786</t>
+  </si>
+  <si>
+    <t>Shohsanam Mirzaliyeva</t>
+  </si>
+  <si>
+    <t>998930967066</t>
+  </si>
+  <si>
+    <t>Abdullo Imamnazarov</t>
+  </si>
+  <si>
+    <t>998977509395</t>
+  </si>
+  <si>
+    <t>Kamron Allaberdiyev</t>
+  </si>
+  <si>
+    <t>998331000922</t>
+  </si>
+  <si>
+    <t>O‘lmasov Ulug‘bek</t>
+  </si>
+  <si>
+    <t>998950422333</t>
+  </si>
+  <si>
+    <t>Murodulloh Xurboyev</t>
+  </si>
+  <si>
+    <t>998882730097</t>
+  </si>
+  <si>
+    <t>Асылбек муратов</t>
+  </si>
+  <si>
+    <t>998976673008</t>
+  </si>
+  <si>
+    <t>Ergash Reimbayev</t>
+  </si>
+  <si>
+    <t>998972409816</t>
+  </si>
+  <si>
+    <t>Matyoqubov Muzaffar</t>
+  </si>
+  <si>
+    <t>998937087115</t>
+  </si>
+  <si>
+    <t>998933533405</t>
+  </si>
+  <si>
+    <t>Mehriddinov Abdumalik</t>
+  </si>
+  <si>
+    <t>998935454477</t>
   </si>
 </sst>
 </file>
@@ -372,7 +1677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2021</v>
+        <v>1994</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -414,10 +1719,3006 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>2001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2003</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>2002</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1989</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2003</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>2002</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>2004</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>2003</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>2003</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>2005</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>1997</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>1994</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>2003</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>2005</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>2000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>2000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>2002</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>1998</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>2003</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>2000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>1993</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>2004</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>2001</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>2002</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>2003</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37">
+        <v>2000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38">
+        <v>2000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>2003</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>2002</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>2003</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42">
+        <v>2003</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>2003</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>2003</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>1999</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>1999</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>2001</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48">
+        <v>2005</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>1993</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>2002</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>2004</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>2003</v>
+      </c>
+      <c r="D52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53">
+        <v>2005</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54">
+        <v>2001</v>
+      </c>
+      <c r="D54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55">
+        <v>1990</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1994</v>
+      </c>
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57">
+        <v>2000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58">
+        <v>2000</v>
+      </c>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>2000</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>2004</v>
+      </c>
+      <c r="D60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61">
+        <v>2002</v>
+      </c>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>2002</v>
+      </c>
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63">
+        <v>2004</v>
+      </c>
+      <c r="D63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>1989</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>2002</v>
+      </c>
+      <c r="D65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66">
+        <v>1997</v>
+      </c>
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67">
+        <v>2001</v>
+      </c>
+      <c r="D67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>2003</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>2005</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>2003</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>1994</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72">
+        <v>2002</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>1992</v>
+      </c>
+      <c r="D73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74">
+        <v>2004</v>
+      </c>
+      <c r="D74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75">
+        <v>2003</v>
+      </c>
+      <c r="D75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <v>2002</v>
+      </c>
+      <c r="D76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>2002</v>
+      </c>
+      <c r="D77" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78">
+        <v>2002</v>
+      </c>
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>1999</v>
+      </c>
+      <c r="D79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80">
+        <v>2002</v>
+      </c>
+      <c r="D80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>2003</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82">
+        <v>2001</v>
+      </c>
+      <c r="D82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83">
+        <v>2003</v>
+      </c>
+      <c r="D83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>2001</v>
+      </c>
+      <c r="D84" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85">
+        <v>2000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86">
+        <v>2003</v>
+      </c>
+      <c r="D86" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>2000</v>
+      </c>
+      <c r="D87" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88">
+        <v>1996</v>
+      </c>
+      <c r="D88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>2004</v>
+      </c>
+      <c r="D89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90">
+        <v>2005</v>
+      </c>
+      <c r="D90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>2003</v>
+      </c>
+      <c r="D91" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92">
+        <v>1999</v>
+      </c>
+      <c r="D92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93">
+        <v>2001</v>
+      </c>
+      <c r="D93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94">
+        <v>2004</v>
+      </c>
+      <c r="D94" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95">
+        <v>1999</v>
+      </c>
+      <c r="D95" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>2002</v>
+      </c>
+      <c r="D96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97">
+        <v>2000</v>
+      </c>
+      <c r="D97" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98">
+        <v>1996</v>
+      </c>
+      <c r="D98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>2003</v>
+      </c>
+      <c r="D99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100">
+        <v>1999</v>
+      </c>
+      <c r="D100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101">
+        <v>2006</v>
+      </c>
+      <c r="D101" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>2003</v>
+      </c>
+      <c r="D102" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>1996</v>
+      </c>
+      <c r="D103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104">
+        <v>2000</v>
+      </c>
+      <c r="D104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>2002</v>
+      </c>
+      <c r="D105" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>2001</v>
+      </c>
+      <c r="D106" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>1999</v>
+      </c>
+      <c r="D107" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108">
+        <v>2003</v>
+      </c>
+      <c r="D108" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109">
+        <v>1999</v>
+      </c>
+      <c r="D109" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>232</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>2001</v>
+      </c>
+      <c r="D110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111">
+        <v>2002</v>
+      </c>
+      <c r="D111" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112">
+        <v>2003</v>
+      </c>
+      <c r="D112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113">
+        <v>2002</v>
+      </c>
+      <c r="D113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114">
+        <v>2003</v>
+      </c>
+      <c r="D114" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115">
+        <v>2002</v>
+      </c>
+      <c r="D115" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116">
+        <v>2003</v>
+      </c>
+      <c r="D116" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>1995</v>
+      </c>
+      <c r="D117" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118">
+        <v>1998</v>
+      </c>
+      <c r="D118" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>249</v>
+      </c>
+      <c r="B119" t="s">
+        <v>46</v>
+      </c>
+      <c r="C119">
+        <v>1992</v>
+      </c>
+      <c r="D119" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>251</v>
+      </c>
+      <c r="B120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120">
+        <v>2000</v>
+      </c>
+      <c r="D120" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>253</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>2001</v>
+      </c>
+      <c r="D121" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122">
+        <v>2002</v>
+      </c>
+      <c r="D122" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123">
+        <v>2002</v>
+      </c>
+      <c r="D123" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>259</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124">
+        <v>2004</v>
+      </c>
+      <c r="D124" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>261</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125">
+        <v>1999</v>
+      </c>
+      <c r="D125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>263</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>2000</v>
+      </c>
+      <c r="D126" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>265</v>
+      </c>
+      <c r="B127" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127">
+        <v>1999</v>
+      </c>
+      <c r="D127" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128">
+        <v>1995</v>
+      </c>
+      <c r="D128" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129">
+        <v>1996</v>
+      </c>
+      <c r="D129" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130">
+        <v>2005</v>
+      </c>
+      <c r="D130" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>273</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131">
+        <v>2007</v>
+      </c>
+      <c r="D131" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132">
+        <v>2003</v>
+      </c>
+      <c r="D132" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>277</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>2004</v>
+      </c>
+      <c r="D133" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>279</v>
+      </c>
+      <c r="B134" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134">
+        <v>2007</v>
+      </c>
+      <c r="D134" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>281</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135">
+        <v>1998</v>
+      </c>
+      <c r="D135" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>283</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136">
+        <v>1998</v>
+      </c>
+      <c r="D136" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>285</v>
+      </c>
+      <c r="B137" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137">
+        <v>2005</v>
+      </c>
+      <c r="D137" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>287</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138">
+        <v>1997</v>
+      </c>
+      <c r="D138" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>289</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <v>2000</v>
+      </c>
+      <c r="D139" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>291</v>
+      </c>
+      <c r="B140" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140">
+        <v>2003</v>
+      </c>
+      <c r="D140" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141">
+        <v>2002</v>
+      </c>
+      <c r="D141" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>295</v>
+      </c>
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142">
+        <v>2002</v>
+      </c>
+      <c r="D142" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>297</v>
+      </c>
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143">
+        <v>1999</v>
+      </c>
+      <c r="D143" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>299</v>
+      </c>
+      <c r="B144" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144">
+        <v>2002</v>
+      </c>
+      <c r="D144" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>301</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>1997</v>
+      </c>
+      <c r="D145" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>99</v>
+      </c>
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146">
+        <v>2003</v>
+      </c>
+      <c r="D146" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>1987</v>
+      </c>
+      <c r="D147" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>306</v>
+      </c>
+      <c r="B148" t="s">
+        <v>139</v>
+      </c>
+      <c r="C148">
+        <v>2002</v>
+      </c>
+      <c r="D148" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>308</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149">
+        <v>1987</v>
+      </c>
+      <c r="D149" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150">
+        <v>1988</v>
+      </c>
+      <c r="D150" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>2002</v>
+      </c>
+      <c r="D151" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152">
+        <v>2005</v>
+      </c>
+      <c r="D152" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>316</v>
+      </c>
+      <c r="B153" t="s">
+        <v>88</v>
+      </c>
+      <c r="C153">
+        <v>2003</v>
+      </c>
+      <c r="D153" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>318</v>
+      </c>
+      <c r="B154" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154">
+        <v>2002</v>
+      </c>
+      <c r="D154" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>320</v>
+      </c>
+      <c r="B155" t="s">
+        <v>56</v>
+      </c>
+      <c r="C155">
+        <v>2003</v>
+      </c>
+      <c r="D155" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>2001</v>
+      </c>
+      <c r="D156" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>324</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>2006</v>
+      </c>
+      <c r="D157" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>326</v>
+      </c>
+      <c r="B158" t="s">
+        <v>97</v>
+      </c>
+      <c r="C158">
+        <v>2005</v>
+      </c>
+      <c r="D158" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>328</v>
+      </c>
+      <c r="B159" t="s">
+        <v>61</v>
+      </c>
+      <c r="C159">
+        <v>2006</v>
+      </c>
+      <c r="D159" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160" t="s">
+        <v>61</v>
+      </c>
+      <c r="C160">
+        <v>1999</v>
+      </c>
+      <c r="D160" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>332</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161">
+        <v>1995</v>
+      </c>
+      <c r="D161" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>334</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>1999</v>
+      </c>
+      <c r="D162" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>336</v>
+      </c>
+      <c r="B163" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163">
+        <v>2003</v>
+      </c>
+      <c r="D163" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>338</v>
+      </c>
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164">
+        <v>2002</v>
+      </c>
+      <c r="D164" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" t="s">
+        <v>46</v>
+      </c>
+      <c r="C165">
+        <v>2001</v>
+      </c>
+      <c r="D165" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>342</v>
+      </c>
+      <c r="B166" t="s">
+        <v>61</v>
+      </c>
+      <c r="C166">
+        <v>1994</v>
+      </c>
+      <c r="D166" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167">
+        <v>2002</v>
+      </c>
+      <c r="D167" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" t="s">
+        <v>97</v>
+      </c>
+      <c r="C168">
+        <v>2002</v>
+      </c>
+      <c r="D168" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>348</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>2003</v>
+      </c>
+      <c r="D169" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>350</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>2006</v>
+      </c>
+      <c r="D170" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>352</v>
+      </c>
+      <c r="B171" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171">
+        <v>1999</v>
+      </c>
+      <c r="D171" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>354</v>
+      </c>
+      <c r="B172" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172">
+        <v>2004</v>
+      </c>
+      <c r="D172" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>356</v>
+      </c>
+      <c r="B173" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173">
+        <v>1999</v>
+      </c>
+      <c r="D173" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>358</v>
+      </c>
+      <c r="B174" t="s">
+        <v>46</v>
+      </c>
+      <c r="C174">
+        <v>2003</v>
+      </c>
+      <c r="D174" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175">
+        <v>1994</v>
+      </c>
+      <c r="D175" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>361</v>
+      </c>
+      <c r="B176" t="s">
+        <v>43</v>
+      </c>
+      <c r="C176">
+        <v>2003</v>
+      </c>
+      <c r="D176" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>363</v>
+      </c>
+      <c r="B177" t="s">
+        <v>46</v>
+      </c>
+      <c r="C177">
+        <v>1999</v>
+      </c>
+      <c r="D177" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>365</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>2002</v>
+      </c>
+      <c r="D178" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>367</v>
+      </c>
+      <c r="B179" t="s">
+        <v>40</v>
+      </c>
+      <c r="C179">
+        <v>1997</v>
+      </c>
+      <c r="D179" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>369</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>2002</v>
+      </c>
+      <c r="D180" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>371</v>
+      </c>
+      <c r="B181" t="s">
+        <v>97</v>
+      </c>
+      <c r="C181">
+        <v>2003</v>
+      </c>
+      <c r="D181" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>373</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>2005</v>
+      </c>
+      <c r="D182" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>375</v>
+      </c>
+      <c r="B183" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183">
+        <v>1999</v>
+      </c>
+      <c r="D183" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>377</v>
+      </c>
+      <c r="B184" t="s">
+        <v>139</v>
+      </c>
+      <c r="C184">
+        <v>1999</v>
+      </c>
+      <c r="D184" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>379</v>
+      </c>
+      <c r="B185" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185">
+        <v>2000</v>
+      </c>
+      <c r="D185" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>381</v>
+      </c>
+      <c r="B186" t="s">
+        <v>139</v>
+      </c>
+      <c r="C186">
+        <v>1996</v>
+      </c>
+      <c r="D186" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>383</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>1997</v>
+      </c>
+      <c r="D187" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>385</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>1999</v>
+      </c>
+      <c r="D188" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>387</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189">
+        <v>2004</v>
+      </c>
+      <c r="D189" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>389</v>
+      </c>
+      <c r="B190" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190">
+        <v>1999</v>
+      </c>
+      <c r="D190" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>391</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191">
+        <v>1991</v>
+      </c>
+      <c r="D191" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>393</v>
+      </c>
+      <c r="B192" t="s">
+        <v>139</v>
+      </c>
+      <c r="C192">
+        <v>1998</v>
+      </c>
+      <c r="D192" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>395</v>
+      </c>
+      <c r="B193" t="s">
+        <v>43</v>
+      </c>
+      <c r="C193">
+        <v>2000</v>
+      </c>
+      <c r="D193" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>397</v>
+      </c>
+      <c r="B194" t="s">
+        <v>61</v>
+      </c>
+      <c r="C194">
+        <v>2003</v>
+      </c>
+      <c r="D194" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>399</v>
+      </c>
+      <c r="B195" t="s">
+        <v>43</v>
+      </c>
+      <c r="C195">
+        <v>2004</v>
+      </c>
+      <c r="D195" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>401</v>
+      </c>
+      <c r="B196" t="s">
+        <v>97</v>
+      </c>
+      <c r="C196">
+        <v>2001</v>
+      </c>
+      <c r="D196" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" t="s">
+        <v>46</v>
+      </c>
+      <c r="C197">
+        <v>1997</v>
+      </c>
+      <c r="D197" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>405</v>
+      </c>
+      <c r="B198" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198">
+        <v>1995</v>
+      </c>
+      <c r="D198" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>407</v>
+      </c>
+      <c r="B199" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199">
+        <v>2000</v>
+      </c>
+      <c r="D199" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>409</v>
+      </c>
+      <c r="B200" t="s">
+        <v>43</v>
+      </c>
+      <c r="C200">
+        <v>1996</v>
+      </c>
+      <c r="D200" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>411</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <v>1995</v>
+      </c>
+      <c r="D201" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>413</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202">
+        <v>2006</v>
+      </c>
+      <c r="D202" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>415</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203">
+        <v>2006</v>
+      </c>
+      <c r="D203" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>417</v>
+      </c>
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204">
+        <v>2003</v>
+      </c>
+      <c r="D204" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>419</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>2003</v>
+      </c>
+      <c r="D205" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>421</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>2004</v>
+      </c>
+      <c r="D206" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>423</v>
+      </c>
+      <c r="B207" t="s">
+        <v>30</v>
+      </c>
+      <c r="C207">
+        <v>1985</v>
+      </c>
+      <c r="D207" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>425</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>2001</v>
+      </c>
+      <c r="D208" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>427</v>
+      </c>
+      <c r="B209" t="s">
+        <v>46</v>
+      </c>
+      <c r="C209">
+        <v>2002</v>
+      </c>
+      <c r="D209" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>429</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>2002</v>
+      </c>
+      <c r="D210" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>431</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>1997</v>
+      </c>
+      <c r="D211" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>433</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212">
+        <v>1997</v>
+      </c>
+      <c r="D212" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>435</v>
+      </c>
+      <c r="B213" t="s">
+        <v>49</v>
+      </c>
+      <c r="C213">
+        <v>2006</v>
+      </c>
+      <c r="D213" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>437</v>
+      </c>
+      <c r="B214" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214">
+        <v>1998</v>
+      </c>
+      <c r="D214" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>439</v>
+      </c>
+      <c r="B215" t="s">
+        <v>40</v>
+      </c>
+      <c r="C215">
+        <v>2003</v>
+      </c>
+      <c r="D215" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>118</v>
+      </c>
+      <c r="B216" t="s">
+        <v>61</v>
+      </c>
+      <c r="C216">
+        <v>2005</v>
+      </c>
+      <c r="D216" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>442</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>2002</v>
+      </c>
+      <c r="D217" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>FIO</t>
   </si>
@@ -28,19 +28,37 @@
     <t>Telefon raqam</t>
   </si>
   <si>
-    <t>Hojimurod Mamadaliev</t>
-  </si>
-  <si>
-    <t>Toshkent</t>
-  </si>
-  <si>
-    <t>+998972666255</t>
-  </si>
-  <si>
-    <t>asfaf adsfasdf</t>
+    <t>dfg f</t>
+  </si>
+  <si>
+    <t>Andijon</t>
   </si>
   <si>
     <t>+998950657313</t>
+  </si>
+  <si>
+    <t>Jurabayev umidjon</t>
+  </si>
+  <si>
+    <t>Toshkent viloyati</t>
+  </si>
+  <si>
+    <t>998900038204</t>
+  </si>
+  <si>
+    <t>Namanjanov Ilxom</t>
+  </si>
+  <si>
+    <t>998931640311</t>
+  </si>
+  <si>
+    <t>Ismatillayev Doston</t>
+  </si>
+  <si>
+    <t>Toshkent shahri</t>
+  </si>
+  <si>
+    <t>998335254114</t>
   </si>
 </sst>
 </file>
@@ -372,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +418,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -411,13 +429,41 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>2002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
